--- a/material/navi/ナビ音声設定.xlsx
+++ b/material/navi/ナビ音声設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\navi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-proj\ets2_zunda_mod\material\navi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0824F64-E710-4548-BC47-E7CF6D0235FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451AF964-0047-4384-B246-1DF6972AECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="36" windowWidth="17892" windowHeight="12036" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="252" windowWidth="17412" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ずんだもん" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="198">
   <si>
     <t>タイミング</t>
   </si>
@@ -911,16 +911,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>目的地に到着したのだ
-お願い、おチビちゃんだけでも逃がしてあげて
-却下なのだ
-お願い、私はどうなってもいいから、おちびちゃんだけは
-子ずんの肉は柔らかくて高級な食材なのだ。逃がしたりしたら僕が絞められてしまうのだ。
-そんな
-おかあちゃ、おかあちゃ、どちたの</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>狭いのだ。少しでいいからここから出してほしいのだ
 絶対逃げようとするからダメなのだ
 のだぁ</t>
@@ -1046,22 +1036,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>まもなく左方向、出口だよ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>まもなく右方向、出口だよ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>まもなく左方向だよ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>まもなく右方向だよ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>左方向だよ</t>
     <rPh sb="0" eb="3">
       <t>ヒダリホウコウ</t>
@@ -1079,88 +1053,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>その後、左方向、出口だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒダリホウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>デグチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、右方向、出口だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>デグチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、直進だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョクシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、左車線だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒダリシャセン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、右車線だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャセン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、左折だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サセツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>その後、右折だよ</t>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウセツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>左方向、出口だよ</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -1209,114 +1101,8 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>まっすぐ進んでね</t>
-    <rPh sb="4" eb="5">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ここを左ね</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>にんげんさん、にんげんさん
-なんなのだ、運転手さんに気安く話しかけるんじゃないのだ
-あそこに良い森があるのだ。僕たちはあの森で暮らすことに決めたのだ。ここから出してほしいのだ。
-え！？自分の立場が分かっていなくてびっくりしたのだ。お前たちにそんなことを決める権利は無いのだ。
-どういうことなのだ？
-お前たちは人間に所有されているのだ、お前たちをどうするかは人間が決めるのだ。
-そんなのおかしいのだ！僕たちのずんせいは僕たちが決めるのだ。
-お前たちの行き先は森ではなくて人間の食卓なのだ。
-えっ</t>
-    <rPh sb="20" eb="23">
-      <t>ウンテンシュ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キヤス</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>タチバ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ケンリ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ボク</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="228" eb="229">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>ショクタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>10</t>
@@ -1343,10 +1129,6 @@
   </si>
   <si>
     <t>右方向、出口だよ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>まっすぐだよ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1658,20 +1440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出発するよ
-暗くて怖いのだ、ここから出してほしいのだ
-目を閉じれば一緒よ。夜だと思って眠ってなさい。
-それもそうだよ。おやすみ、おやすみ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>つむぎ独自</t>
-    <rPh sb="3" eb="5">
-      <t>ドクジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ナビを開始するよ
 これからどこに連れて行ってくれるのだ？
 どこだと思う？
@@ -1683,16 +1451,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>目的地に到着したよ
-お願い、おチビちゃんだけでも逃がしてあげて
-却下
-お願い、私はどうなってもいいから、おちびちゃんだけは
-子ずんの肉は柔らかくて高級な食材なのよ。逃がしたりしたらバイト代もらえなくなっちゃう。
-そんな
-おかあちゃ、おかあちゃ、どちたの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>目的地まで案内するよ
 外に出るのは初めてなのだ、とっても楽しみなのだ！
 そうなの。楽しみにしているといいよ。きっといいことがあるから。
@@ -1755,28 +1513,6 @@
 残念だけどそれは叶わないわね
 え、どういうこと？</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そろそろご飯の時間だね
-ずんだ餅、ずんだ餅
-なに、あーたらもご飯食べたいの？
-たーい
-残念でした、あーしと運転手さんの分しか用意してないよ
-のだぁ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>おかあちゃ、おかあちゃ、おなかすいたのだ！
-にんげんさん、ご飯さんをくださいのだ。おちびちゃんたちがお腹を空かせているんです
-その子ずんにエサはやらないよ
-お願いします、この子たちは生まれてから何も食べてないんです
-だからだよ。
-え！？
-生まれてから一度も食事したことない子ずんは内臓がきれいなままだから、食材としての価値が高いんよ。
-だから何も食べさせないよ。
-そんな！一度もごはんさんを食べないまま食べられるなんて、酷すぎるのだ！
-おかあちゃ、おなかすいたのだ</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>にんげんさん、にんげんさん
@@ -1846,6 +1582,176 @@
 うるさいのだ、おかあちゃのところに帰るのだ、出して、出して
 はーもう、仕方ないな
 やめて、くるちい、くる、ち</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もうすぐ左方向、出口だよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もうすぐ右方向、出口だよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もうすぐ左方向だよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>もうすぐ右方向だよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>直進ね</t>
+    <rPh sb="0" eb="2">
+      <t>チョクシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのあと、左方向、出口だよ</t>
+    <rPh sb="5" eb="8">
+      <t>ヒダリホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、右方向、出口だよ</t>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあとは、直進だよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、右車線</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、左車線</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、右方向</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、左方向</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ここは直進</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>つむぎ専用</t>
+    <rPh sb="3" eb="5">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出発するよ
+暗くて怖いのだ、ここから出してほしいのだ
+目を閉じれば一緒よ。夜だと思って眠ってなさい。
+それもそうなのだ。おやすみ、おやすみ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的地に到着したよ
+お願い、おチビちゃんだけでも逃がしてあげて
+却下
+お願いなのだ、僕たちはいいから、おちびちゃんだけは
+子ずんの肉は柔らかくて高級な食材なのよ。逃がしたりしたらバイト代もらえなくなっちゃう。
+そんな
+おかあちゃ、おかあちゃ、どちたの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的地に到着したのだ
+お願い、おチビちゃんだけでも逃がしてあげて
+却下なのだ
+お願いなのだ、僕たちはいいから、おちびちゃんだけは
+子ずんの肉は柔らかくて高級な食材なのだ。逃がしたりしたら僕が絞められてしまうのだ。
+そんな
+おかあちゃ、おかあちゃ、どちたの</t>
+    <rPh sb="46" eb="47">
+      <t>ボク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おかあちゃ、おかあちゃ、おなかすいたのだ！
+にんげんさん、ご飯さんをくださいのだ。おちびちゃんたちがお腹を空かせているのだ
+その子ずんにエサはやらないよ
+お願いなのだ、この子たちは生まれてから何も食べてないのだ
+だからだよ。
+え！？
+生まれてから一度も餌を与えられてない子ずんは内臓がきれいなままだから、食材としての価値が高いんよ。
+だから何も食べさせないよ。
+そんな！一度もごはんさんを食べたことがないまま食べられるなんて、あんまりなのだ！
+おかあちゃ、おなかすいたのだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そろそろご飯の時間だね
+わーい、ご飯なのだ
+なに、あーたらもご飯食べたいの？
+たーい
+残念でした、あーしと運転手さんの分しか持ってきてないよ
+のだぁ</t>
+    <rPh sb="17" eb="18">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>にんげんさん、にんげんさん
+今度はなんなのだ？
+あそこにいい森があるのだ。僕たちはあそこで暮らすことに決めたのだ。ここから出してほしいのだ。
+え！？
+自分たちの立場が分かってなくてびっくりなのだ。
+お前たちにそんなことを決める権利は無いのだ。
+どういうことなのだ？
+お前たちは人間の所有物なのだ
+しょゆーぶつ
+お前たちの命をどうするかは人間が決めるということなのだ。
+そんなのおかしいのだ！僕の命は僕のものなのだ
+まあそういうことだから、あきらめるのだ
+なにがそういうことなのだ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おかあちゃ、おかあちゃ、おなかすいたのだ！
+にんげんさん、ご飯さんをくださいのだ。おちびちゃんたちがお腹を空かせているのだ
+その子ずんにエサはやらないのだ
+お願いなのだ、この子たちは生まれてから何も食べてないのだ
+だからなのだ
+え！？
+生まれてから一度も餌を与えられてない子ずんは内臓がきれいなままだから、食材としての価値が高いのだ
+だから何も食べさせないのだ
+そんな！一度もごはんさんを食べたことがないまま食べられるなんて、あんまりなのだ！
+おかあちゃ、おなかすいたのだ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2106,6 +2012,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,16 +2035,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2411,9 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2435,7 +2339,7 @@
         <v>76</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
@@ -2446,7 +2350,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2464,7 +2368,7 @@
         <f t="shared" ref="A3:A84" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2384,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2496,7 +2400,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2416,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2530,7 +2434,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2546,7 +2450,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2466,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2482,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2594,7 +2498,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2610,7 +2514,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2626,7 +2530,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2644,7 +2548,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2564,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2580,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +2596,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2708,7 +2612,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -2724,7 +2628,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -2740,7 +2644,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2758,7 +2662,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2774,7 +2678,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2790,7 +2694,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -2806,7 +2710,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2822,7 +2726,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -2838,7 +2742,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -2854,7 +2758,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2872,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -2888,7 +2792,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -2904,7 +2808,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -2920,7 +2824,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -2936,7 +2840,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +2856,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
@@ -2968,7 +2872,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="18"/>
       <c r="D34" s="23" t="s">
         <v>95</v>
@@ -2982,7 +2886,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="18"/>
       <c r="D35" s="11" t="s">
         <v>96</v>
@@ -2996,7 +2900,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="18"/>
       <c r="D36" s="23" t="s">
         <v>97</v>
@@ -3010,7 +2914,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="18"/>
       <c r="D37" s="11" t="s">
         <v>98</v>
@@ -3024,7 +2928,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="18"/>
       <c r="D38" s="23" t="s">
         <v>99</v>
@@ -3038,7 +2942,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
         <v>100</v>
@@ -3052,7 +2956,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="18"/>
       <c r="D40" s="23" t="s">
         <v>101</v>
@@ -3066,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
         <v>110</v>
@@ -3083,10 +2987,10 @@
       <c r="B42" s="42"/>
       <c r="C42" s="18"/>
       <c r="D42" s="23" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F42">
         <v>1.1000000000000001</v>
@@ -3180,7 +3084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75.599999999999994">
+    <row r="49" spans="1:6" ht="75.599999999999994">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3194,7 +3098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="63.6">
+    <row r="50" spans="1:6" ht="63.6">
       <c r="A50" s="1"/>
       <c r="B50" s="26"/>
       <c r="C50" s="28"/>
@@ -3205,7 +3109,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="99.6">
+    <row r="51" spans="1:6" ht="99.6">
       <c r="A51" s="1"/>
       <c r="B51" s="26"/>
       <c r="C51" s="28"/>
@@ -3213,10 +3117,10 @@
         <v>109</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3226,14 +3130,14 @@
       <c r="D52" s="29"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="26"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3243,7 +3147,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:5" ht="75.599999999999994">
+    <row r="55" spans="1:6" ht="75.599999999999994">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3261,7 +3165,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="87.6">
+    <row r="56" spans="1:6" ht="87.6">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3275,7 +3179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="51.6">
+    <row r="57" spans="1:6" ht="51.6">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3289,7 +3193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="87.6">
+    <row r="58" spans="1:6" ht="87.6">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3300,17 +3204,20 @@
         <v>97</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F58">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="34"/>
       <c r="C59" s="18"/>
       <c r="D59" s="23"/>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3322,7 +3229,7 @@
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="1:5" ht="39.6">
+    <row r="61" spans="1:6" ht="39.6">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3337,10 +3244,10 @@
         <v>93</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="39.6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="39.6">
       <c r="A62" s="1"/>
       <c r="B62" s="31"/>
       <c r="C62" s="5"/>
@@ -3348,10 +3255,10 @@
         <v>102</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="75.599999999999994">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="75.599999999999994">
       <c r="A63" s="1"/>
       <c r="B63" s="31"/>
       <c r="C63" s="5"/>
@@ -3359,10 +3266,10 @@
         <v>96</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="99.6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="99.6">
       <c r="A64" s="1"/>
       <c r="B64" s="31"/>
       <c r="C64" s="5"/>
@@ -3370,7 +3277,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99.6">
@@ -3384,7 +3291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="111.6">
+    <row r="66" spans="1:6" ht="159.6">
       <c r="A66" s="1"/>
       <c r="B66" s="31"/>
       <c r="C66" s="5"/>
@@ -3392,18 +3299,23 @@
         <v>99</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="F66">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="123.6">
       <c r="A67" s="1"/>
       <c r="B67" s="36"/>
       <c r="C67" s="5"/>
       <c r="D67" s="29"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
@@ -3427,7 +3339,7 @@
         <v>93</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3477,7 +3389,7 @@
         <v>93</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3488,7 +3400,7 @@
         <v>102</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3499,7 +3411,7 @@
         <v>96</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3510,7 +3422,7 @@
         <v>97</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="87.6">
@@ -3521,7 +3433,7 @@
         <v>98</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="75.599999999999994">
@@ -3532,7 +3444,7 @@
         <v>99</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="63.6">
@@ -3543,7 +3455,7 @@
         <v>100</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75.599999999999994">
@@ -3607,9 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7D41-F474-4D50-BCB4-02013285754B}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3631,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1</v>
@@ -3642,7 +3552,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -3652,7 +3562,7 @@
         <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3660,7 +3570,7 @@
         <f t="shared" ref="A3:A85" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3668,7 +3578,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3676,7 +3586,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3594,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3692,7 +3602,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -3700,7 +3610,7 @@
         <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3708,7 +3618,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3718,7 +3628,7 @@
         <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3726,7 +3636,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3734,7 +3644,7 @@
         <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3742,7 +3652,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3750,7 +3660,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3758,7 +3668,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +3676,7 @@
         <v>93</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3774,7 +3684,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -3782,7 +3692,7 @@
         <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3790,7 +3700,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -3798,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3806,7 +3716,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3814,7 +3724,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3822,7 +3732,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3832,7 +3742,7 @@
         <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3840,7 +3750,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -3848,7 +3758,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3856,7 +3766,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -3864,7 +3774,7 @@
         <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3872,7 +3782,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -3880,7 +3790,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3888,7 +3798,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -3896,7 +3806,7 @@
         <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3904,7 +3814,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -3912,7 +3822,7 @@
         <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3920,7 +3830,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -3928,7 +3838,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3936,7 +3846,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3946,7 +3856,7 @@
         <v>93</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3954,7 +3864,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -3962,7 +3872,7 @@
         <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3970,7 +3880,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3978,7 +3888,7 @@
         <v>93</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3986,7 +3896,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -3994,7 +3904,7 @@
         <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4002,7 +3912,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -4010,7 +3920,7 @@
         <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4018,7 +3928,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="44"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -4026,7 +3936,7 @@
         <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4034,7 +3944,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -4042,7 +3952,7 @@
         <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4050,7 +3960,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="52" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4060,7 +3970,7 @@
         <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4068,7 +3978,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -4076,7 +3986,7 @@
         <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4084,7 +3994,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="47"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +4002,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4100,7 +4010,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -4108,7 +4018,7 @@
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4116,7 +4026,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4124,7 +4034,7 @@
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4132,7 +4042,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -4140,7 +4050,7 @@
         <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27.6">
@@ -4148,18 +4058,18 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="48" t="s">
+      <c r="D33" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4167,16 +4077,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="44" t="s">
         <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4184,16 +4094,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="44" t="s">
         <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4201,16 +4111,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="44" t="s">
         <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4218,16 +4128,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="44" t="s">
         <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4235,16 +4145,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="44" t="s">
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27.6">
@@ -4252,16 +4162,16 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="43" t="s">
         <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="39.6">
@@ -4269,16 +4179,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="43" t="s">
         <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="87.6">
@@ -4286,13 +4196,13 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27.6">
@@ -4302,14 +4212,14 @@
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>159</v>
+      <c r="D42" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51.6">
@@ -4327,7 +4237,7 @@
         <v>93</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75.599999999999994">
@@ -4341,7 +4251,7 @@
         <v>102</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51.6">
@@ -4355,7 +4265,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="75.599999999999994">
@@ -4369,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="147.6">
@@ -4383,7 +4293,7 @@
         <v>98</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="51.6">
@@ -4397,7 +4307,7 @@
         <v>99</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99.6">
@@ -4411,10 +4321,10 @@
         <v>115</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="63.6">
@@ -4425,7 +4335,7 @@
         <v>101</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99.6">
@@ -4436,7 +4346,7 @@
         <v>109</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="147.6">
@@ -4447,10 +4357,13 @@
       <c r="B52" s="26"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>172</v>
+      <c r="F52" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4485,7 +4398,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="87.6">
@@ -4499,7 +4412,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="51.6">
@@ -4513,7 +4426,7 @@
         <v>96</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="87.6">
@@ -4527,7 +4440,7 @@
         <v>97</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4564,7 +4477,7 @@
         <v>93</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="39.6">
@@ -4575,7 +4488,7 @@
         <v>102</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="75.599999999999994">
@@ -4586,7 +4499,7 @@
         <v>96</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99.6">
@@ -4597,7 +4510,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99.6">
@@ -4608,7 +4521,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="183.6">
@@ -4619,10 +4532,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66">
-        <v>1.1000000000000001</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="123.6">
@@ -4630,13 +4540,10 @@
       <c r="B67" s="38"/>
       <c r="C67" s="5"/>
       <c r="D67" s="29" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67">
-        <v>1.1000000000000001</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4668,7 +4575,7 @@
         <v>93</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4717,11 +4624,11 @@
       <c r="D75" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="52" t="s">
-        <v>127</v>
+      <c r="E75" s="47" t="s">
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4731,11 +4638,11 @@
       <c r="D76" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="53" t="s">
-        <v>129</v>
+      <c r="E76" s="48" t="s">
+        <v>128</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4745,11 +4652,11 @@
       <c r="D77" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="53" t="s">
-        <v>130</v>
+      <c r="E77" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4759,11 +4666,11 @@
       <c r="D78" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E78" s="53" t="s">
-        <v>128</v>
+      <c r="E78" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="87.6">
@@ -4773,11 +4680,11 @@
       <c r="D79" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E79" s="52" t="s">
-        <v>131</v>
+      <c r="E79" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="75.599999999999994">
@@ -4787,11 +4694,11 @@
       <c r="D80" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="52" t="s">
-        <v>132</v>
+      <c r="E80" s="47" t="s">
+        <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75.599999999999994">
@@ -4802,7 +4709,7 @@
         <v>100</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="75.599999999999994">
@@ -4813,7 +4720,7 @@
         <v>101</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:5">

--- a/material/navi/ナビ音声設定.xlsx
+++ b/material/navi/ナビ音声設定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-proj\ets2_zunda_mod\material\navi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451AF964-0047-4384-B246-1DF6972AECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12690BAA-FB04-4CA6-9CE1-25B9C6D425D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="252" windowWidth="17412" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="252" windowWidth="17412" windowHeight="10512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ずんだもん" sheetId="1" r:id="rId1"/>
@@ -1338,13 +1338,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ずんだ共通</t>
-    <rPh sb="3" eb="5">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おじさんなのだ、大好きなのだ！
 のだのだのだのだ
 よろこべ、お前たちの新しい家族がみつかったぞ。連れて行くから急いでトラックに乗り込め。
@@ -1409,34 +1402,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>まっくらなのだ、この音と揺れはなんなのだ？
-これからあーたたちをトラックで輸送するんだよ。いい子にしてれば、おいしいずんだ餅になれるよ
-ずんだ餅！ずんだ餅！
-しゅっぱーつ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出発するよ
 嬉しい！嬉しい！
 え？何が嬉しいの？
 ぱぱずんとままずんに会えるって聞いたよ？
 ああ。そうね。もうすぐ同じところに行けるよ。
 とっても楽しみなのだ！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>目的地まで案内するよ
-暗くて何も見えないのだ。気晴らしに、こいつの耳でも引っ張って遊ぶのだ
-やめて、いちゃいいちゃいいちゃい、とれるとれるとれる
-あぁ
-あ、ちぎれたのだ
-ひどい、なんでこんなことするの！
-まだ一本残ってるのだ
-もうやめて！いちゃいいちゃいいちゃい
-ちょっとちびずん、なに商品に傷付けてるのよ。あとであんたの耳もちぎってやるからね
-えっ、ごめんなさい、許してほしいのだ
-許さない。商品に傷があったらあーしのバイト代が減るんだから
-のだぁ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1459,17 +1430,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>目的地まで案内するよ
-どこに連れていかれるの？酷いことされないか、とっても心配なのだ
-あーたたちの行き先は「ずんだもんクラブハウス」と書かれているね
-「ずんだもんクラブハウス」？
-スマホで調べてみるね。えーと・・・、ずんだもんクラブハウスとは
-幸せいっぱいに暮らすずんだもんで様々な遊びを楽しむ娯楽施設で、腕を凝らしたずんだ料理も絶品である。と書かれているね。
-よく分からないけど楽しそうなところなのだ。とっても楽しみなのだ！ありがとうなのだ！
-どういたしまして</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>おぎゃーおぎゃー、おぎゃーおぎゃー、おぎゃーおぎゃー
 おちびちゃんが生まれたのだ、たくさん生まれたのだ、とっても可愛いのだ！
 ナイスタイミングだね、ちょうど到着したよ。きっと高く売れるよ。
@@ -1503,33 +1463,6 @@
 えええ
 ムカついたからついでに周りのやつらも連帯責任。ずんだバーニャカウダの刑に処す
 僕たちは関係ないのだ、やめて、やめて</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>おぎゃーおぎゃー、おぎゃーおぎゃー、おぎゃーおぎゃー
-おチビちゃんが生まれたのだ、とっても可愛いのだ！
-でも、たりないやつなのだ
-可愛いおチビちゃんには変わりないのだ、頑張って育てるのだ！
-残念だけどそれは叶わないわね
-え、どういうこと？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>にんげんさん、にんげんさん
-今度はなんなの？
-あそこにいい森があるのだ。僕たちはあそこで暮らすことに決めたのだ。ここから出してほしいのだ。
-え！？
-自分らの立場が分かってなくてびっくりだわ。
-あーたらにそんなことを決める権利は無いよ。
-どういうことなのだ？
-あーたらは人間の所有物なの。
-しょゆーぶつ
-あーたらの命をどうするかは人間が決めるということだよ。
-そんなのおかしいのだ！僕の命は僕のものなのだ
-それはそうかもしれないけど、そのおかげであーしはバイト代をもらえるんだから、ウィンウィンの関係だよね
-うぃんうぃん？
-そう、ウィンウィン
-うぃんうぃん</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1574,17 +1507,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>むんんんんんんむー、おはよう！おはよう！
-おかあちゃ、どこ？
-あーたのおかあちゃはここにはいないよ
-おかあちゃのところに帰る、出して、出して
-無駄なの、静かにしなさい
-うるさいのだ、おかあちゃのところに帰るのだ、出して、出して
-はーもう、仕方ないな
-やめて、くるちい、くる、ち</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>もうすぐ左方向、出口だよ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1632,28 +1554,6 @@
   </si>
   <si>
     <t>そのあとは、直進だよ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そのあと、右車線</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そのあと、左車線</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そのあと、右方向</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>そのあと、左方向</t>
-    <rPh sb="5" eb="6">
-      <t>ヒダリ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1709,21 +1609,6 @@
 そんな！一度もごはんさんを食べたことがないまま食べられるなんて、あんまりなのだ！
 おかあちゃ、おなかすいたのだ</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>そろそろご飯の時間だね
-わーい、ご飯なのだ
-なに、あーたらもご飯食べたいの？
-たーい
-残念でした、あーしと運転手さんの分しか持ってきてないよ
-のだぁ</t>
-    <rPh sb="17" eb="18">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>にんげんさん、にんげんさん
@@ -1752,6 +1637,130 @@
 だから何も食べさせないのだ
 そんな！一度もごはんさんを食べたことがないまま食べられるなんて、あんまりなのだ！
 おかあちゃ、おなかすいたのだ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そろそろご飯の時間だね
+わーい、ご飯なのだ
+なに、ずんだもんもご飯食べたいの？
+たーい
+残念でした、あーしと運転手さんの分しか持ってきてないよ
+のだぁ</t>
+    <rPh sb="17" eb="18">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おぎゃーおぎゃー、おぎゃーおぎゃー、おぎゃーおぎゃー
+おチビちゃんが生まれたのだ、とっても可愛いのだ！
+でも、たりないやつなのだ
+可愛いおチビちゃんには変わりないのだ、頑張って育てるのだ！
+残念だけどそれは無理だね
+え、どういうこと？</t>
+    <rPh sb="103" eb="105">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>にんげんさん、にんげんさん
+今度はなんなの？
+あそこにいい森があるのだ。僕たちはあそこで暮らすことに決めたのだ。ここから出してほしいのだ。
+え！？
+自分らの立場が分かってなくてびっくりだわ。
+あんたらにそんなことを決める権利は無いよ。
+どういうことなのだ？
+人間に育てられたずんだもんは人間の所有物なの。
+しょゆーぶつ
+ずんだもんの命をどうするかは人間が決めるということだよ。
+そんなのおかしいのだ！僕の命は僕のものなのだ
+それはそうかもしれないけど、そのおかげであーしはバイト代をもらえるんだから、ウィンウィンの関係だよね
+うぃんうぃん？
+そう、ウィンウィン
+うぃんうぃん</t>
+    <rPh sb="129" eb="131">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ソダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>むんんんんんんむー、おはよう！おはよう！
+おかあちゃ、どこ？
+あんたのおかあちゃはここにはいないよ
+おかあちゃのところに帰る、出して、出して
+無駄なの、静かにしなさい
+うるさいのだ、おかあちゃのところに帰るのだ、出して、出して
+はーもう、仕方ないな
+やめて、くるちい、くる、ち</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的地まで案内するよ
+どこに連れていかれるの？酷いことされないか、とっても心配なのだ
+あんたらの行き先は「ずんだもんクラブハウス」と書かれているね
+「ずんだもんクラブハウス」？
+スマホで調べてみよ。えーと・・・、ずんだもんクラブハウスとは
+幸せいっぱいに暮らすずんだもんで様々な遊びを楽しむ娯楽施設で、腕を凝らしたずんだ料理も絶品である。と書かれているね。
+よく分からないけど楽しそうなところなのだ。とっても楽しみなのだ！ありがとうなのだ！
+どういたしまして</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的地まで案内するよ
+暗くて何も見えないのだ。気晴らしに、こいつの耳でも引っ張って遊ぶのだ
+やめて、いちゃいいちゃいいちゃい、とれるとれるとれる
+あぁ
+あ、ちぎれたのだ
+ひどい、なんでこんなことするの！
+まだ一本残ってるのだ
+もうやめて！いちゃいいちゃいいちゃい
+ちょっとちびずん、なに商品に傷付けてるのよ。あとであんたの耳もちぎってやるからね
+えっ、ごめんなさい、許してほしいのだ
+だめ、許さない。商品に傷ができたら、あーしのバイト代が減るんだから
+のだぁ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まっくらなのだ、この音と揺れはなんなのだ？
+これからずんだもんをトラックで輸送するんだよ。いい子にしてれば、おいしいずんだ餅になれるよ
+ずんだ餅！ずんだ餅！
+しゅっぱーつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのあと、左車線ね</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、右車線ね</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、左方向ね</t>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのあと、右方向ね</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2317,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3204,7 +3213,7 @@
         <v>97</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F58">
         <v>1.1000000000000001</v>
@@ -3299,7 +3308,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F66">
         <v>1.1000000000000001</v>
@@ -3311,7 +3320,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="29"/>
       <c r="E67" s="24" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F67">
         <v>1.1000000000000001</v>
@@ -3519,7 +3528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7D41-F474-4D50-BCB4-02013285754B}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -3562,7 +3573,7 @@
         <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3578,7 +3589,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3594,7 +3605,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3610,7 +3621,7 @@
         <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3660,7 +3671,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3742,7 +3753,7 @@
         <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3758,7 +3769,7 @@
         <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3774,7 +3785,7 @@
         <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3790,7 +3801,7 @@
         <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3806,7 +3817,7 @@
         <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3822,7 +3833,7 @@
         <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3838,7 +3849,7 @@
         <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3952,7 +3963,7 @@
         <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4069,7 +4080,7 @@
         <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4086,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4103,7 +4114,7 @@
         <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4120,7 +4131,7 @@
         <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4137,7 +4148,7 @@
         <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4154,7 +4165,7 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="27.6">
@@ -4171,7 +4182,7 @@
         <v>91</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="39.6">
@@ -4188,7 +4199,7 @@
         <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="87.6">
@@ -4219,7 +4230,7 @@
         <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="51.6">
@@ -4237,7 +4248,7 @@
         <v>93</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75.599999999999994">
@@ -4251,7 +4262,7 @@
         <v>102</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51.6">
@@ -4265,7 +4276,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="75.599999999999994">
@@ -4279,7 +4290,7 @@
         <v>97</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="147.6">
@@ -4293,7 +4304,7 @@
         <v>98</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="51.6">
@@ -4307,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="99.6">
@@ -4321,10 +4332,10 @@
         <v>115</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="63.6">
@@ -4335,7 +4346,7 @@
         <v>101</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="99.6">
@@ -4346,7 +4357,7 @@
         <v>109</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="147.6">
@@ -4360,10 +4371,10 @@
         <v>143</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4398,7 +4409,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="87.6">
@@ -4412,7 +4423,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="51.6">
@@ -4426,7 +4437,7 @@
         <v>96</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="87.6">
@@ -4440,7 +4451,7 @@
         <v>97</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4477,7 +4488,7 @@
         <v>93</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="39.6">
@@ -4488,7 +4499,7 @@
         <v>102</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="75.599999999999994">
@@ -4499,7 +4510,7 @@
         <v>96</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="99.6">
@@ -4510,7 +4521,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99.6">
@@ -4521,7 +4532,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="183.6">
@@ -4532,7 +4543,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="123.6">
@@ -4543,7 +4554,7 @@
         <v>144</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4575,7 +4586,7 @@
         <v>93</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4628,7 +4639,7 @@
         <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4642,7 +4653,7 @@
         <v>128</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4656,7 +4667,7 @@
         <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4670,7 +4681,7 @@
         <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="87.6">
@@ -4684,7 +4695,7 @@
         <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="75.599999999999994">
@@ -4698,7 +4709,7 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="75.599999999999994">
@@ -4709,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="75.599999999999994">
@@ -4720,7 +4731,7 @@
         <v>101</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5">

--- a/material/navi/ナビ音声設定.xlsx
+++ b/material/navi/ナビ音声設定.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-proj\ets2_zunda_mod\material\navi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git-proj\ets2_zunda_mod\material\navi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12690BAA-FB04-4CA6-9CE1-25B9C6D425D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4D1E09-57B1-41CC-BBEA-EAD9B7C79051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="252" windowWidth="17412" windowHeight="10512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="17892" windowHeight="12036" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ずんだもん" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="200">
   <si>
     <t>タイミング</t>
   </si>
@@ -1761,6 +1761,19 @@
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>狭くて苦しいのだ、ここから出してほしいのだ
+ずんだもんうるさい
+うっ、ひっ、うえーん、うえーん
+うっ、ふえーん、ふえーん
+ずんだもん、黙らないと箱の中に入れるわよ
+うっ、うっ、うっ、うっ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1937,7 +1950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2031,6 +2044,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2359,7 +2375,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2377,7 +2393,7 @@
         <f t="shared" ref="A3:A84" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2409,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2425,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2441,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2443,7 +2459,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2491,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2507,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2507,7 +2523,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2523,7 +2539,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -2539,7 +2555,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2557,7 +2573,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2573,7 +2589,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2605,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -2605,7 +2621,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2621,7 +2637,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2653,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -2653,7 +2669,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2671,7 +2687,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -2687,7 +2703,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2703,7 +2719,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -2719,7 +2735,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2735,7 +2751,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2767,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -2767,7 +2783,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2785,7 +2801,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2817,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2833,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -2833,7 +2849,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -2849,7 +2865,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -2865,7 +2881,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
@@ -2881,7 +2897,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="18"/>
       <c r="D34" s="23" t="s">
         <v>95</v>
@@ -2895,7 +2911,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="18"/>
       <c r="D35" s="11" t="s">
         <v>96</v>
@@ -2909,7 +2925,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="18"/>
       <c r="D36" s="23" t="s">
         <v>97</v>
@@ -2923,7 +2939,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="18"/>
       <c r="D37" s="11" t="s">
         <v>98</v>
@@ -2937,7 +2953,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="18"/>
       <c r="D38" s="23" t="s">
         <v>99</v>
@@ -2951,7 +2967,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="18"/>
       <c r="D39" s="11" t="s">
         <v>100</v>
@@ -2965,7 +2981,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="18"/>
       <c r="D40" s="23" t="s">
         <v>101</v>
@@ -2979,7 +2995,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
         <v>110</v>
@@ -3526,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7D41-F474-4D50-BCB4-02013285754B}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3563,7 +3579,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -3578,10 +3594,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A85" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A86" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3613,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
@@ -3613,7 +3629,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3645,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3647,7 +3663,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3663,7 +3679,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -3679,7 +3695,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3695,7 +3711,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
@@ -3711,7 +3727,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -3727,7 +3743,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -3743,7 +3759,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3761,7 +3777,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -3777,7 +3793,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -3793,7 +3809,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -3809,7 +3825,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -3825,7 +3841,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
@@ -3841,7 +3857,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
@@ -3857,7 +3873,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3875,7 +3891,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
@@ -3891,7 +3907,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3907,7 +3923,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
@@ -3923,7 +3939,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -3939,7 +3955,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
@@ -3955,7 +3971,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
@@ -3971,7 +3987,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -3989,7 +4005,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="11" t="s">
         <v>52</v>
       </c>
@@ -4005,7 +4021,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="11" t="s">
         <v>54</v>
       </c>
@@ -4021,7 +4037,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="11" t="s">
         <v>56</v>
       </c>
@@ -4037,7 +4053,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4053,7 +4069,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="11" t="s">
         <v>60</v>
       </c>
@@ -4069,7 +4085,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
@@ -4088,7 +4104,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="18"/>
       <c r="D34" s="46" t="s">
         <v>95</v>
@@ -4105,7 +4121,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="18"/>
       <c r="D35" s="45" t="s">
         <v>96</v>
@@ -4122,7 +4138,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="18"/>
       <c r="D36" s="46" t="s">
         <v>97</v>
@@ -4139,7 +4155,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="18"/>
       <c r="D37" s="45" t="s">
         <v>98</v>
@@ -4156,7 +4172,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="18"/>
       <c r="D38" s="46" t="s">
         <v>99</v>
@@ -4173,7 +4189,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="18"/>
       <c r="D39" s="45" t="s">
         <v>100</v>
@@ -4190,7 +4206,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="18"/>
       <c r="D40" s="46" t="s">
         <v>101</v>
@@ -4207,7 +4223,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="18"/>
       <c r="D41" s="23" t="s">
         <v>110</v>
@@ -4233,95 +4249,95 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="51.6">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="25" t="s">
+    <row r="43" spans="1:6" ht="75.599999999999994">
+      <c r="A43" s="1"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="51.6">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="D44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="75.599999999999994">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="51.6">
+    <row r="45" spans="1:6" ht="75.599999999999994">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="5" t="s">
-        <v>96</v>
+      <c r="D45" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="75.599999999999994">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="51.6">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
-        <v>97</v>
+      <c r="D46" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="147.6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="75.599999999999994">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="5" t="s">
-        <v>98</v>
+      <c r="D47" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="51.6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="147.6">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="29" t="s">
-        <v>99</v>
+      <c r="D48" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="99.6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="51.6">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4329,281 +4345,286 @@
       <c r="B49" s="26"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="63.6">
-      <c r="A50" s="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="99.6">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="B50" s="26"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="99.6">
+        <v>160</v>
+      </c>
+      <c r="F50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="63.6">
       <c r="A51" s="1"/>
       <c r="B51" s="26"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="147.6">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="99.6">
+      <c r="A52" s="1"/>
       <c r="B52" s="26"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="147.6">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="B53" s="26"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="24"/>
+      <c r="D53" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="26"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="1:6" ht="75.599999999999994">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="26"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:6" ht="75.599999999999994">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C56" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="D56" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="87.6">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="51.6">
+    <row r="57" spans="1:6" ht="87.6">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="11" t="s">
-        <v>96</v>
+      <c r="D57" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="87.6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="51.6">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="18"/>
-      <c r="D58" s="23" t="s">
-        <v>97</v>
+      <c r="D58" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="87.6">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="B59" s="34"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="20"/>
+      <c r="D59" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="34"/>
       <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="39.6">
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="34"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.6">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="24" t="s">
+      <c r="D62" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="39.6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="75.599999999999994">
+    <row r="63" spans="1:6" ht="39.6">
       <c r="A63" s="1"/>
       <c r="B63" s="38"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>96</v>
+      <c r="D63" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="99.6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="75.599999999999994">
       <c r="A64" s="1"/>
       <c r="B64" s="38"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="29" t="s">
-        <v>97</v>
+      <c r="D64" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="99.6">
       <c r="A65" s="1"/>
       <c r="B65" s="38"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="99.6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E66" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="183.6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="123.6">
+    <row r="67" spans="1:6" ht="183.6">
       <c r="A67" s="1"/>
-      <c r="B67" s="38"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="5"/>
       <c r="D67" s="29" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="123.6">
       <c r="A68" s="1"/>
       <c r="B68" s="38"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="24"/>
+      <c r="D68" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="38"/>
       <c r="C69" s="5"/>
       <c r="D69" s="29"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" ht="87.6">
-      <c r="A70" s="1">
-        <f t="shared" si="0"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="87.6">
+      <c r="A71" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="39" t="s">
+      <c r="D71" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="39" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="37"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
-        <v>96</v>
+      <c r="D72" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E72" s="10"/>
     </row>
@@ -4611,7 +4632,9 @@
       <c r="A73" s="1"/>
       <c r="B73" s="37"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:6">
@@ -4621,36 +4644,29 @@
       <c r="D74" s="11"/>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="27.6">
-      <c r="A75" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="38" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="27.6">
+      <c r="A76" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="47" t="s">
+      <c r="D76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="F75" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="F76" t="s">
         <v>197</v>
@@ -4660,11 +4676,11 @@
       <c r="A77" s="1"/>
       <c r="B77" s="38"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
-        <v>96</v>
+      <c r="D77" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s">
         <v>197</v>
@@ -4674,98 +4690,112 @@
       <c r="A78" s="1"/>
       <c r="B78" s="38"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="29" t="s">
-        <v>97</v>
+      <c r="D78" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="87.6">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="38"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>130</v>
+      <c r="D79" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="F79" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="75.599999999999994">
+    <row r="80" spans="1:6" ht="87.6">
       <c r="A80" s="1"/>
       <c r="B80" s="38"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="29" t="s">
-        <v>99</v>
+      <c r="D80" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F80" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="75.599999999999994">
+    <row r="81" spans="1:6" ht="75.599999999999994">
       <c r="A81" s="1"/>
       <c r="B81" s="38"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="75.599999999999994">
+      <c r="D81" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="75.599999999999994">
       <c r="A82" s="1"/>
       <c r="B82" s="38"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="29" t="s">
-        <v>101</v>
+      <c r="D82" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="75.599999999999994">
       <c r="A83" s="1"/>
       <c r="B83" s="38"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="D83" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="38"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="37" t="s">
+      <c r="D84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="E86" s="12" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="E87" s="12" t="s">
         <v>75</v>
       </c>
     </row>
